--- a/ILRG_ORAM_T_horas/ILRG_ORAM_T_horas-media/ILRG_ORAM_T_horas.xlsx
+++ b/ILRG_ORAM_T_horas/ILRG_ORAM_T_horas-media/ILRG_ORAM_T_horas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_T_horas\ILRG_ORAM_T_horas-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32C1CF-533F-4F21-ABB0-F0CFFA573778}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC2D153-9213-4764-B755-334F6178013B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
   <si>
     <t>type</t>
   </si>
@@ -437,15 +437,88 @@
   </si>
   <si>
     <t>Hora do fim da actividade:</t>
+  </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -587,306 +660,322 @@
   </borders>
   <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -894,18 +983,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="236">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1577,7 +1655,7 @@
       <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1585,7 +1663,7 @@
       <c r="A4" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -1596,7 +1674,7 @@
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>35</v>
       </c>
       <c r="M5" s="28" t="s">
@@ -1607,7 +1685,7 @@
       <c r="A6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="2"/>
@@ -1619,7 +1697,7 @@
       <c r="A7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>109</v>
       </c>
       <c r="N7" s="28" t="s">
@@ -1630,7 +1708,7 @@
       <c r="A8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -1641,13 +1719,13 @@
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:15" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -1658,7 +1736,7 @@
       <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1675,7 +1753,7 @@
       <c r="A12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>125</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1692,7 +1770,7 @@
       <c r="A13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -1709,7 +1787,7 @@
       <c r="A14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>121</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -1726,13 +1804,13 @@
       <c r="A15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -1749,7 +1827,7 @@
       <c r="A17" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>129</v>
       </c>
       <c r="C17" s="28" t="s">
@@ -1811,7 +1889,7 @@
       <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>130</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -1883,13 +1961,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,316 +2002,466 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B11" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C13" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B14" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C16" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B17" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C17" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C18" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C19" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B20" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C20" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B21" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C23" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B24" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C24" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B25" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>65</v>
-      </c>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B33" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:C18">
-    <sortCondition ref="C14:C18"/>
+  <autoFilter ref="A1:D26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C27:C31">
+    <sortCondition ref="C27:C31"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2245,7 +2473,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2506,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="27">
-        <v>201904032</v>
+        <v>201904101</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>71</v>

--- a/ILRG_ORAM_T_horas/ILRG_ORAM_T_horas-media/ILRG_ORAM_T_horas.xlsx
+++ b/ILRG_ORAM_T_horas/ILRG_ORAM_T_horas-media/ILRG_ORAM_T_horas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_T_horas\ILRG_ORAM_T_horas-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC2D153-9213-4764-B755-334F6178013B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60112B67-E4A3-4970-BE39-C2552696D048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -268,12 +263,6 @@
     <t>Celestino Machaia Maia</t>
   </si>
   <si>
-    <t>Costa_E_Antonio</t>
-  </si>
-  <si>
-    <t>Costa E Antonio</t>
-  </si>
-  <si>
     <t>Eulalia_Pedro_Candua</t>
   </si>
   <si>
@@ -503,15 +492,124 @@
   </si>
   <si>
     <t>Zito Afonso</t>
+  </si>
+  <si>
+    <t>Abasto_Abasto_Janeiro</t>
+  </si>
+  <si>
+    <t>Abasto Abasto Janeiro</t>
+  </si>
+  <si>
+    <t>Abrao_Saraiva_Namuiri</t>
+  </si>
+  <si>
+    <t>Abrao Saraiva Namuiri</t>
+  </si>
+  <si>
+    <t>Adolfo_Suzana_Santos</t>
+  </si>
+  <si>
+    <t>Adolfo da Suzana Santos</t>
+  </si>
+  <si>
+    <t>Adriano_Banco</t>
+  </si>
+  <si>
+    <t>Adriano Banco</t>
+  </si>
+  <si>
+    <t>Anafuleza_Xavier</t>
+  </si>
+  <si>
+    <t>Anafuleza Xavier</t>
+  </si>
+  <si>
+    <t>Angelina_Marques_Impeia</t>
+  </si>
+  <si>
+    <t>Angelina Marques Impeia</t>
+  </si>
+  <si>
+    <t>Ericha_Jose_Elurane_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ericha Jose Elurane </t>
+  </si>
+  <si>
+    <t>Gelacio_Muganiua_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelacio Muganiua </t>
+  </si>
+  <si>
+    <t>Geraldo_Armando</t>
+  </si>
+  <si>
+    <t>Geraldo Armando</t>
+  </si>
+  <si>
+    <t>Honorio_Pedro</t>
+  </si>
+  <si>
+    <t>Honorio Pedro</t>
+  </si>
+  <si>
+    <t>Joana_Joao</t>
+  </si>
+  <si>
+    <t>Joana Joao</t>
+  </si>
+  <si>
+    <t>Lourenco_Manuel_Eugenio</t>
+  </si>
+  <si>
+    <t>Lourenco Manuel Eugenio</t>
+  </si>
+  <si>
+    <t>Luis_Botomane</t>
+  </si>
+  <si>
+    <t>Luis Botomane</t>
+  </si>
+  <si>
+    <t>Mateus_Francisco_Bizueque</t>
+  </si>
+  <si>
+    <t>Mateus Francisco Bizueque</t>
+  </si>
+  <si>
+    <t>Michael_Antonio_Whiulano</t>
+  </si>
+  <si>
+    <t>Michael Antonio Whiulano</t>
+  </si>
+  <si>
+    <t>Neldo_Joao</t>
+  </si>
+  <si>
+    <t>Neldo Joao</t>
+  </si>
+  <si>
+    <t>Rassul_Francisco_Manuel</t>
+  </si>
+  <si>
+    <t>Rassul Francisco Manuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -658,334 +756,344 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="236">
+  <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="236">
+  <cellStyles count="246">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1222,6 +1330,16 @@
     <cellStyle name="Normal 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
     <cellStyle name="Normal 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
     <cellStyle name="Normal 3 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="238" xr:uid="{4CF3F2D5-9D0A-4EAB-B8B1-BC0BDC1444C2}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="240" xr:uid="{521B6AA2-F51C-4FFF-A47F-74EB8D7C619D}"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="244" xr:uid="{8506F8DA-45F7-4C30-BD78-39703AF28882}"/>
+    <cellStyle name="Normal 3 2 2 2 3" xfId="243" xr:uid="{7C63CB41-5B44-4C64-BEEE-15846613B585}"/>
+    <cellStyle name="Normal 3 2 2 2 4" xfId="239" xr:uid="{71619034-474B-4B6C-9966-82F941C4B0D8}"/>
+    <cellStyle name="Normal 3 2 2 2 4 2" xfId="241" xr:uid="{72E18D6F-C471-4BF0-803C-2A5E12542268}"/>
+    <cellStyle name="Normal 3 2 2 2 4 3" xfId="245" xr:uid="{FE9740AD-B294-4841-989A-EE814421A1CE}"/>
+    <cellStyle name="Normal 3 2 2 3" xfId="242" xr:uid="{C842EF1C-BE95-4150-898D-2CA6436E2449}"/>
+    <cellStyle name="Normal 3 2 3" xfId="237" xr:uid="{6A9D82FE-D757-4E42-AD6E-D12E5D9C61CE}"/>
+    <cellStyle name="Normal 3 3" xfId="236" xr:uid="{416CF085-1663-465D-82AD-C80298B9C1E1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1661,13 +1779,13 @@
     </row>
     <row r="4" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -1678,19 +1796,19 @@
         <v>35</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2"/>
       <c r="L6" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,10 +1816,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -1709,15 +1827,15 @@
         <v>36</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -1737,10 +1855,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>22</v>
@@ -1751,19 +1869,19 @@
     </row>
     <row r="12" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -1771,13 +1889,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>120</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>22</v>
@@ -1788,13 +1906,13 @@
         <v>28</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>22</v>
@@ -1802,7 +1920,7 @@
     </row>
     <row r="15" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="31"/>
     </row>
@@ -1814,7 +1932,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>22</v>
@@ -1825,13 +1943,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -1848,7 +1966,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>22</v>
@@ -1862,7 +1980,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>22</v>
@@ -1890,13 +2008,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>22</v>
@@ -1961,13 +2079,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,10 +2124,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -2018,10 +2136,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -2030,10 +2148,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -2042,10 +2160,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -2054,10 +2172,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -2066,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -2078,10 +2196,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -2090,10 +2208,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -2102,10 +2220,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -2114,10 +2232,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -2126,10 +2244,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -2138,10 +2256,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -2150,10 +2268,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -2162,10 +2280,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="17"/>
     </row>
@@ -2174,10 +2292,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="D17" s="17"/>
     </row>
@@ -2186,10 +2304,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D18" s="17"/>
     </row>
@@ -2198,10 +2316,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="D19" s="17"/>
     </row>
@@ -2210,10 +2328,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="D20" s="17"/>
     </row>
@@ -2222,10 +2340,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="D21" s="15"/>
     </row>
@@ -2234,10 +2352,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="D22" s="15"/>
     </row>
@@ -2246,10 +2364,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D23" s="15"/>
     </row>
@@ -2258,10 +2376,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D24" s="15"/>
     </row>
@@ -2270,10 +2388,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="D25" s="15"/>
     </row>
@@ -2282,10 +2400,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D26" s="15"/>
     </row>
@@ -2294,174 +2412,348 @@
         <v>18</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>83</v>
+      </c>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B44" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="30" t="s">
+      <c r="C51" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="15" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C27:C31">
-    <sortCondition ref="C27:C31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C27:C45">
+    <sortCondition ref="C27:C45"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2472,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2798,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="27">
-        <v>201904101</v>
+        <v>201907311</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>71</v>
